--- a/SE Emails.xlsx
+++ b/SE Emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Documents\GitHub\Email_Scraper_SE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F9C109-F84F-406F-8812-54915A8CFE22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3DCE96-2165-47BA-9B24-A97C441E4958}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
   <si>
     <t>https://odoc.princeton.edu/support/finding-help-academic-work/individual-peer-tutoring</t>
   </si>
@@ -32,9 +32,6 @@
     <t>http://www.math.columbia.edu/general-information/tutoring-services/</t>
   </si>
   <si>
-    <t>mathematics.stanford.edu</t>
-  </si>
-  <si>
     <t>https://core-tutors.uchicago.edu/</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>https://www.brown.edu/academics/college/support/tutor</t>
   </si>
   <si>
-    <t>economics.cornell.edu</t>
-  </si>
-  <si>
     <t>http://as.vanderbilt.edu/tutoring/individual.php</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>https://math.berkeley.edu/</t>
   </si>
   <si>
-    <t>college.emory.edu</t>
-  </si>
-  <si>
     <t>https://mathstat.georgetown.edu/resources/private-tutoring</t>
   </si>
   <si>
@@ -140,18 +131,12 @@
     <t>http://www.bu.edu/math</t>
   </si>
   <si>
-    <t>http://info.rpi.edu/advising-learning-assistance/learning-assistance/#TutoringServices</t>
-  </si>
-  <si>
     <t>https://www2.tulane.edu/advising</t>
   </si>
   <si>
     <t>https://www.math.ucdavis.edu/resources/learning/</t>
   </si>
   <si>
-    <t>math.illinois.edu</t>
-  </si>
-  <si>
     <t>https://www.math.wisc.edu</t>
   </si>
   <si>
@@ -173,9 +158,6 @@
     <t>http://math.pepperdine.edu/</t>
   </si>
   <si>
-    <t>ugs.utexas.edu</t>
-  </si>
-  <si>
     <t>http://www.math.washington.edu/</t>
   </si>
   <si>
@@ -206,54 +188,27 @@
     <t>http://www.american.edu/ocl/asac/peer-tutor-list.cfm</t>
   </si>
   <si>
-    <t>baylor.edu/math</t>
-  </si>
-  <si>
     <t>https://rlc.rutgers.edu/sas-one-on-one-tutoring</t>
   </si>
   <si>
-    <t>inside.mines.edu</t>
-  </si>
-  <si>
     <t>http://www.iub.edu/~iubphys/</t>
   </si>
   <si>
-    <t>math.msu.edu</t>
-  </si>
-  <si>
-    <t>physics.tcu.edu</t>
-  </si>
-  <si>
-    <t>math.ucsc.edu</t>
-  </si>
-  <si>
-    <t>math.uiowa.edu</t>
-  </si>
-  <si>
     <t>http://www.marquette.edu/tutoring/tutoring-program.shtml  (only small group tutoring)</t>
   </si>
   <si>
     <t>https://portfolio.du.edu/mathcenter/</t>
   </si>
   <si>
-    <t>stat.ncsu.edu</t>
-  </si>
-  <si>
     <t>http://www.stonybrook.edu/commcms/academic_success/students/services.html</t>
   </si>
   <si>
     <t>http://www.esf.edu/tutoring/get.htm</t>
   </si>
   <si>
-    <t>math.ucsd.edu</t>
-  </si>
-  <si>
     <t>http://www.uvm.edu/~cems/mathstat/</t>
   </si>
   <si>
-    <t>math.fsu.edu</t>
-  </si>
-  <si>
     <t>http://www.slu.edu/retention-and-academic-success/tutoring-and-supplemental-instruction</t>
   </si>
   <si>
@@ -266,18 +221,9 @@
     <t>http://www.luc.edu/tutoring/</t>
   </si>
   <si>
-    <t>statistics.unl.edu</t>
-  </si>
-  <si>
     <t>https://www.nhn.ou.edu/</t>
   </si>
   <si>
-    <t>math.utah.edu</t>
-  </si>
-  <si>
-    <t>mathlab.mtu.edu</t>
-  </si>
-  <si>
     <t>https://www13.shu.edu/offices/arc/</t>
   </si>
   <si>
@@ -410,13 +356,64 @@
     <t>http://reach.louisville.edu/tutoring/general/</t>
   </si>
   <si>
+    <t>http://college.emory.edu/main/index.html</t>
+  </si>
+  <si>
+    <t>http://economics.cornell.edu</t>
+  </si>
+  <si>
+    <t>https://mathlab.mtu.edu</t>
+  </si>
+  <si>
+    <t>https://math.utah.edu</t>
+  </si>
+  <si>
+    <t>https://statistics.unl.edu</t>
+  </si>
+  <si>
+    <t>https://math.fsu.edu</t>
+  </si>
+  <si>
+    <t>https://math.ucsd.edu</t>
+  </si>
+  <si>
+    <t>https://math.uiowa.edu</t>
+  </si>
+  <si>
+    <t>https://math.ucsc.edu</t>
+  </si>
+  <si>
+    <t>https://physics.tcu.edu</t>
+  </si>
+  <si>
+    <t>https://math.msu.edu</t>
+  </si>
+  <si>
+    <t>https://inside.mines.edu</t>
+  </si>
+  <si>
+    <t>https://baylor.edu/math</t>
+  </si>
+  <si>
+    <t>https://ugs.utexas.edu</t>
+  </si>
+  <si>
+    <t>https://mathematics.stanford.edu</t>
+  </si>
+  <si>
+    <t>https://math.illinois.edu</t>
+  </si>
+  <si>
+    <t>https://stat.ncsu.edu</t>
+  </si>
+  <si>
+    <t>https://info.rpi.edu/advising-learning-assistance/learning-assistance/#TutoringServices</t>
+  </si>
+  <si>
+    <t>http://www.marquette.edu/tutoring/tutoring-program.shtml</t>
+  </si>
+  <si>
     <t>Tutor Emails</t>
-  </si>
-  <si>
-    <t>http://college.emory.edu/main/index.html</t>
-  </si>
-  <si>
-    <t>http://economics.cornell.edu</t>
   </si>
 </sst>
 </file>
@@ -805,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -835,643 +832,660 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
+      <c r="A41" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
+      <c r="A44" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
+      <c r="A52" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>61</v>
+      <c r="A64" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>63</v>
+      <c r="A66" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>65</v>
+      <c r="A68" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>66</v>
+      <c r="A69" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>67</v>
+      <c r="A70" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>68</v>
+      <c r="A71" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>69</v>
+      <c r="A72" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>71</v>
+      <c r="A74" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>74</v>
+      <c r="A77" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>76</v>
+      <c r="A79" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>81</v>
+      <c r="A84" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>83</v>
+      <c r="A86" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>84</v>
+      <c r="A87" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{EE557D70-BD15-41A8-98B5-71480DCC78AD}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{AF4B7B8A-0A21-4440-B0DD-CB5EBE6832A8}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{66E762ED-FBD2-4C07-8520-F416E634BA96}"/>
+    <hyperlink ref="A87" r:id="rId3" xr:uid="{32D5FE87-8BC8-45E2-B33C-1268358D06D3}"/>
+    <hyperlink ref="A86" r:id="rId4" xr:uid="{E799162C-C13F-4767-AF37-A7D8B19CF739}"/>
+    <hyperlink ref="A84" r:id="rId5" xr:uid="{5C1D6C30-6BE2-43B1-AFFA-167E9C8B9FA0}"/>
+    <hyperlink ref="A79" r:id="rId6" xr:uid="{E8810C0C-063D-4270-A09E-7FFB6A5483EF}"/>
+    <hyperlink ref="A77" r:id="rId7" xr:uid="{01E0DB79-37AE-40A5-B485-9A7822374CF3}"/>
+    <hyperlink ref="A71" r:id="rId8" xr:uid="{1B7EC6FB-52F4-4A98-BAB3-4E17133F513D}"/>
+    <hyperlink ref="A70" r:id="rId9" xr:uid="{F86B79DD-57EE-4A96-9A1D-BDB04E99EF57}"/>
+    <hyperlink ref="A69" r:id="rId10" xr:uid="{5F13BF03-BFAC-45FC-9AA9-C67A06519A15}"/>
+    <hyperlink ref="A68" r:id="rId11" xr:uid="{7A6044D2-299B-42DF-BB37-5D79151E7F36}"/>
+    <hyperlink ref="A66" r:id="rId12" xr:uid="{3977094A-1F15-4C49-9169-27C9BCA4DEB8}"/>
+    <hyperlink ref="A64" r:id="rId13" xr:uid="{70572BD7-3488-4496-9F1E-9578E852F35A}"/>
+    <hyperlink ref="A52" r:id="rId14" xr:uid="{E8033879-7436-4AC8-87AE-663A161FA231}"/>
+    <hyperlink ref="A44" r:id="rId15" xr:uid="{F2675C89-1AB0-455E-B973-CE440D8378D1}"/>
+    <hyperlink ref="A74" r:id="rId16" xr:uid="{9C5613EA-5076-4EE7-88FE-DD318D51E54D}"/>
+    <hyperlink ref="A41" r:id="rId17" location="TutoringServices" xr:uid="{44198389-99A7-47DE-8239-0FF77DC48D0F}"/>
+    <hyperlink ref="A72" r:id="rId18" xr:uid="{C06780F7-6E3C-48C3-8C1B-92422D1BA0F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1489,620 +1503,638 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
+      <c r="A7" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>39</v>
+      <c r="A33" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>42</v>
+      <c r="A36" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>50</v>
+      <c r="A44" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>61</v>
+      <c r="A56" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>63</v>
+      <c r="A58" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>65</v>
+      <c r="A60" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>66</v>
+      <c r="A61" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>67</v>
+      <c r="A62" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>68</v>
+      <c r="A63" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>71</v>
+      <c r="A66" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>74</v>
+      <c r="A69" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>76</v>
+      <c r="A71" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>81</v>
+      <c r="A76" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>83</v>
+      <c r="A78" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>84</v>
+      <c r="A79" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{1E6181C6-427B-4086-8BF0-5B413864F4D1}"/>
+    <hyperlink ref="A79" r:id="rId2" xr:uid="{03BF7158-FDE1-4E17-B9BA-AA63331E38CF}"/>
+    <hyperlink ref="A78" r:id="rId3" xr:uid="{51660287-F097-4E84-AF1E-88D43F27D292}"/>
+    <hyperlink ref="A76" r:id="rId4" xr:uid="{A9AE08E2-C172-457C-ABDD-2435CA2D9BCE}"/>
+    <hyperlink ref="A71" r:id="rId5" xr:uid="{6711D942-EC84-4A61-BE67-81ED3BE5F489}"/>
+    <hyperlink ref="A69" r:id="rId6" xr:uid="{C79156B8-F5ED-4F61-8D2A-BEFDC9049AD1}"/>
+    <hyperlink ref="A63" r:id="rId7" xr:uid="{6D10B551-3CFF-438B-88B6-047CD82EA0B4}"/>
+    <hyperlink ref="A62" r:id="rId8" xr:uid="{4DB9EED4-ACF2-4A06-9C48-269A748510A8}"/>
+    <hyperlink ref="A61" r:id="rId9" xr:uid="{AC20FEBE-C562-4386-BF17-994AE95BD437}"/>
+    <hyperlink ref="A60" r:id="rId10" xr:uid="{7639C6B3-4EA3-442A-A436-BEA487978DF0}"/>
+    <hyperlink ref="A58" r:id="rId11" xr:uid="{ACE71F20-1FE6-4A36-B8FC-C6B38EA5C473}"/>
+    <hyperlink ref="A56" r:id="rId12" xr:uid="{91E2C950-7D2E-4DBD-AAAF-EB4006FA691A}"/>
+    <hyperlink ref="A44" r:id="rId13" xr:uid="{1D84400A-D629-4D72-B66B-1F9C9EF6BE47}"/>
+    <hyperlink ref="A36" r:id="rId14" xr:uid="{21B2E528-1E5F-4C40-ACED-98E8AF7965DB}"/>
+    <hyperlink ref="A66" r:id="rId15" xr:uid="{78E3C2CF-D365-4A4C-8C18-B49D2DF21D09}"/>
+    <hyperlink ref="A33" r:id="rId16" location="TutoringServices" xr:uid="{7A7D84F0-6FE9-47E1-87D4-E765BD73A3E7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>